--- a/10.xlsx
+++ b/10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiros-h\Documents\サンプル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C94CAF-B58F-46CB-8486-65B0E8CD9819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E109852-107D-41BD-83BF-6D1FE590FBBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5272" yWindow="1305" windowWidth="28186" windowHeight="15045" xr2:uid="{43A727E7-E0DD-4276-BE22-A0C497C034AF}"/>
+    <workbookView xWindow="5977" yWindow="1508" windowWidth="28186" windowHeight="15045" xr2:uid="{43A727E7-E0DD-4276-BE22-A0C497C034AF}"/>
   </bookViews>
   <sheets>
     <sheet name="係数の検定" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="170">
   <si>
     <t>メーカー</t>
   </si>
@@ -2328,6 +2328,15 @@
       <c r="K12" s="19" t="s">
         <v>108</v>
       </c>
+      <c r="L12" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A13" t="s">
@@ -2363,7 +2372,6 @@
       <c r="L13" s="23"/>
       <c r="M13" s="23"/>
       <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A14" t="s">
@@ -2399,7 +2407,6 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A15" t="s">
@@ -4560,6 +4567,15 @@
       <c r="K12" s="19" t="s">
         <v>108</v>
       </c>
+      <c r="L12" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A13" t="s">
@@ -4593,7 +4609,7 @@
         <v>99</v>
       </c>
       <c r="L13" s="23" cm="1">
-        <f t="array" ref="L13:O13">L4:O4/L5:O5</f>
+        <f t="array" ref="L13:N13">L4:N4/L5:N5</f>
         <v>4.91901706195054</v>
       </c>
       <c r="M13" s="23">
@@ -4601,9 +4617,6 @@
       </c>
       <c r="N13" s="23">
         <v>-5.6961090239528005</v>
-      </c>
-      <c r="O13" s="23">
-        <v>5.7342321209048954</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.7">
@@ -4638,7 +4651,7 @@
         <v>98</v>
       </c>
       <c r="L14" s="1" cm="1">
-        <f t="array" ref="L14:O14">_xlfn.T.DIST.2T(ABS(_xlfn.ANCHORARRAY(L13)),M7)</f>
+        <f t="array" ref="L14:N14">_xlfn.T.DIST.2T(ABS(_xlfn.ANCHORARRAY(L13)),M7)</f>
         <v>1.1529481709059744E-5</v>
       </c>
       <c r="M14" s="1">
@@ -4646,9 +4659,6 @@
       </c>
       <c r="N14" s="1">
         <v>8.2456447773657446E-7</v>
-      </c>
-      <c r="O14" s="1">
-        <v>7.2334791459038205E-7</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.7">
@@ -4709,20 +4719,17 @@
         <v>132</v>
       </c>
       <c r="L16" s="4" cm="1">
-        <f t="array" ref="L16:O16">_xlfn.ANCHORARRAY(L14)/4</f>
-        <v>2.8823704272649359E-6</v>
+        <f t="array" ref="L16:N16">_xlfn.ANCHORARRAY(L14)/3</f>
+        <v>3.8431605696865815E-6</v>
       </c>
       <c r="M16" s="4">
-        <v>1.6082749012302838E-7</v>
+        <v>2.1443665349737117E-7</v>
       </c>
       <c r="N16" s="4">
-        <v>2.0614111943414361E-7</v>
-      </c>
-      <c r="O16" s="4">
-        <v>1.8083697864759551E-7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.7">
+        <v>2.7485482591219147E-7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -4752,7 +4759,7 @@
       </c>
       <c r="K17" s="12"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -4784,20 +4791,17 @@
         <v>133</v>
       </c>
       <c r="L18" s="7" t="str" cm="1">
-        <f t="array" ref="L18:O18">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY(L19),_xlfn.ANCHORARRAY(L14),L3:O3,,0,1)</f>
+        <f t="array" ref="L18:N18">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY(L19),_xlfn.ANCHORARRAY(L14),L3:N3,,0,1)</f>
         <v>走行</v>
       </c>
       <c r="M18" s="7" t="str">
-        <v>定数項</v>
+        <v>年式</v>
       </c>
       <c r="N18" s="7" t="str">
-        <v>年式</v>
-      </c>
-      <c r="O18" s="7" t="str">
         <v>排気量</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -4829,20 +4833,17 @@
         <v>98</v>
       </c>
       <c r="L19" cm="1">
-        <f t="array" ref="L19:O19">_xlfn._xlws.SORT(_xlfn.ANCHORARRAY(L14),,1,TRUE)</f>
+        <f t="array" ref="L19:N19">_xlfn._xlws.SORT(_xlfn.ANCHORARRAY(L14),,1,TRUE)</f>
         <v>6.4330996049211351E-7</v>
       </c>
       <c r="M19">
-        <v>7.2334791459038205E-7</v>
+        <v>8.2456447773657446E-7</v>
       </c>
       <c r="N19">
-        <v>8.2456447773657446E-7</v>
-      </c>
-      <c r="O19">
         <v>1.1529481709059744E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -4874,20 +4875,17 @@
         <v>134</v>
       </c>
       <c r="L20" s="1" cm="1">
-        <f t="array" ref="L20:O20">_xlfn.ANCHORARRAY(L19)/(COUNT(_xlfn.ANCHORARRAY(L19))-(COLUMN(_xlfn.ANCHORARRAY(L19))-COLUMN(L19)))</f>
-        <v>1.6082749012302838E-7</v>
+        <f t="array" ref="L20:N20">_xlfn.ANCHORARRAY(L19)/(COUNT(_xlfn.ANCHORARRAY(L19))-(COLUMN(_xlfn.ANCHORARRAY(L19))-COLUMN(L19)))</f>
+        <v>2.1443665349737117E-7</v>
       </c>
       <c r="M20" s="1">
-        <v>2.4111597153012735E-7</v>
+        <v>4.1228223886828723E-7</v>
       </c>
       <c r="N20" s="1">
-        <v>4.1228223886828723E-7</v>
-      </c>
-      <c r="O20" s="1">
         <v>1.1529481709059744E-5</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -4916,7 +4914,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -4956,11 +4954,8 @@
       <c r="N22" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="O22" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.7">
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A23" t="s">
         <v>50</v>
       </c>
@@ -4992,7 +4987,7 @@
         <v>136</v>
       </c>
       <c r="L23" s="5" cm="1">
-        <f t="array" ref="L23:O23">L4:O4-_xlfn.T.INV.2T(0.05,M7)*L5:O5</f>
+        <f t="array" ref="L23:N23">L4:N4-_xlfn.T.INV.2T(0.05,M7)*L5:N5</f>
         <v>3.8060836543167179E-2</v>
       </c>
       <c r="M23" s="5">
@@ -5001,11 +4996,8 @@
       <c r="N23" s="5">
         <v>-9.4740889144329508</v>
       </c>
-      <c r="O23" s="18">
-        <v>9249.2974122646592</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.7">
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -5037,7 +5029,7 @@
         <v>137</v>
       </c>
       <c r="L24" s="37" cm="1">
-        <f t="array" ref="L24:O24">L4:O4+_xlfn.T.INV.2T(0.05,M7)*L5:O5</f>
+        <f t="array" ref="L24:N24">L4:N4+_xlfn.T.INV.2T(0.05,M7)*L5:N5</f>
         <v>9.0785742465733496E-2</v>
       </c>
       <c r="M24" s="37">
@@ -5046,11 +5038,8 @@
       <c r="N24" s="37">
         <v>-4.5265365876247223</v>
       </c>
-      <c r="O24" s="27">
-        <v>19255.310007068154</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.7">
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -5079,7 +5068,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -5108,7 +5097,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -5137,7 +5126,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -5166,7 +5155,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A29" t="s">
         <v>64</v>
       </c>
@@ -5195,7 +5184,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -5224,7 +5213,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -5253,7 +5242,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -6982,6 +6971,15 @@
       <c r="K12" s="19" t="s">
         <v>108</v>
       </c>
+      <c r="L12" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="Q12" s="30" t="s">
         <v>147</v>
       </c>
@@ -7018,7 +7016,7 @@
         <v>99</v>
       </c>
       <c r="L13" s="23" cm="1">
-        <f t="array" ref="L13:O13">L4:O4/L5:O5</f>
+        <f t="array" ref="L13:N13">L4:N4/L5:N5</f>
         <v>4.9190170619505391</v>
       </c>
       <c r="M13" s="23">
@@ -7026,9 +7024,6 @@
       </c>
       <c r="N13" s="23">
         <v>-5.6961090239527978</v>
-      </c>
-      <c r="O13" s="23">
-        <v>15.304589595479712</v>
       </c>
       <c r="Q13" t="s">
         <v>142</v>
@@ -7066,7 +7061,7 @@
         <v>98</v>
       </c>
       <c r="L14" s="1" cm="1">
-        <f t="array" ref="L14:O14">_xlfn.T.DIST.2T(ABS(_xlfn.ANCHORARRAY(L13)),M7)</f>
+        <f t="array" ref="L14:N14">_xlfn.T.DIST.2T(ABS(_xlfn.ANCHORARRAY(L13)),M7)</f>
         <v>1.1529481709059784E-5</v>
       </c>
       <c r="M14" s="1">
@@ -7074,9 +7069,6 @@
       </c>
       <c r="N14" s="1">
         <v>8.2456447773658356E-7</v>
-      </c>
-      <c r="O14" s="1">
-        <v>1.1375077184666917E-19</v>
       </c>
       <c r="Q14" t="s">
         <v>140</v>
@@ -7143,17 +7135,14 @@
         <v>132</v>
       </c>
       <c r="L16" s="4" cm="1">
-        <f t="array" ref="L16:O16">_xlfn.ANCHORARRAY(L14)/4</f>
-        <v>2.8823704272649461E-6</v>
+        <f t="array" ref="L16:N16">_xlfn.ANCHORARRAY(L14)/3</f>
+        <v>3.8431605696865951E-6</v>
       </c>
       <c r="M16" s="4">
-        <v>1.6082749012303129E-7</v>
+        <v>2.1443665349737506E-7</v>
       </c>
       <c r="N16" s="4">
-        <v>2.0614111943414589E-7</v>
-      </c>
-      <c r="O16" s="4">
-        <v>2.8437692961667293E-20</v>
+        <v>2.7485482591219454E-7</v>
       </c>
       <c r="Q16" t="s">
         <v>143</v>
@@ -7224,16 +7213,13 @@
         <v>133</v>
       </c>
       <c r="L18" s="7" t="str" cm="1">
-        <f t="array" ref="L18:O18">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY(L19),_xlfn.ANCHORARRAY(L14),L3:O3,,0,1)</f>
-        <v>定数項</v>
+        <f t="array" ref="L18:N18">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY(L19),_xlfn.ANCHORARRAY(L14),L3:N3,,0,1)</f>
+        <v>走行</v>
       </c>
       <c r="M18" s="7" t="str">
-        <v>走行</v>
+        <v>年式</v>
       </c>
       <c r="N18" s="7" t="str">
-        <v>年式</v>
-      </c>
-      <c r="O18" s="7" t="str">
         <v>排気量</v>
       </c>
     </row>
@@ -7269,16 +7255,13 @@
         <v>98</v>
       </c>
       <c r="L19" cm="1">
-        <f t="array" ref="L19:O19">_xlfn._xlws.SORT(_xlfn.ANCHORARRAY(L14),,1,TRUE)</f>
-        <v>1.1375077184666917E-19</v>
+        <f t="array" ref="L19:N19">_xlfn._xlws.SORT(_xlfn.ANCHORARRAY(L14),,1,TRUE)</f>
+        <v>6.4330996049212516E-7</v>
       </c>
       <c r="M19">
-        <v>6.4330996049212516E-7</v>
+        <v>8.2456447773658356E-7</v>
       </c>
       <c r="N19">
-        <v>8.2456447773658356E-7</v>
-      </c>
-      <c r="O19">
         <v>1.1529481709059784E-5</v>
       </c>
     </row>
@@ -7314,16 +7297,13 @@
         <v>134</v>
       </c>
       <c r="L20" s="1" cm="1">
-        <f t="array" ref="L20:O20">_xlfn.ANCHORARRAY(L19)/(COUNT(_xlfn.ANCHORARRAY(L19))-(COLUMN(_xlfn.ANCHORARRAY(L19))-COLUMN(L19)))</f>
-        <v>2.8437692961667293E-20</v>
+        <f t="array" ref="L20:N20">_xlfn.ANCHORARRAY(L19)/(COUNT(_xlfn.ANCHORARRAY(L19))-(COLUMN(_xlfn.ANCHORARRAY(L19))-COLUMN(L19)))</f>
+        <v>2.1443665349737506E-7</v>
       </c>
       <c r="M20" s="1">
-        <v>2.1443665349737506E-7</v>
+        <v>4.1228223886829178E-7</v>
       </c>
       <c r="N20" s="1">
-        <v>4.1228223886829178E-7</v>
-      </c>
-      <c r="O20" s="1">
         <v>1.1529481709059784E-5</v>
       </c>
     </row>
@@ -7396,9 +7376,6 @@
       <c r="N22" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="O22" s="7" t="s">
-        <v>104</v>
-      </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A23" t="s">
@@ -7432,7 +7409,7 @@
         <v>136</v>
       </c>
       <c r="L23" s="5" cm="1">
-        <f t="array" ref="L23:O23">L4:O4-_xlfn.T.INV.2T(0.05,M7)*L5:O5</f>
+        <f t="array" ref="L23:N23">L4:N4-_xlfn.T.INV.2T(0.05,M7)*L5:N5</f>
         <v>29.920837645655094</v>
       </c>
       <c r="M23" s="5">
@@ -7440,9 +7417,6 @@
       </c>
       <c r="N23" s="5">
         <v>-86.500870320549623</v>
-      </c>
-      <c r="O23" s="18">
-        <v>136.24677363424689</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.7">
@@ -7477,7 +7451,7 @@
         <v>137</v>
       </c>
       <c r="L24" s="37" cm="1">
-        <f t="array" ref="L24:O24">L4:O4+_xlfn.T.INV.2T(0.05,M7)*L5:O5</f>
+        <f t="array" ref="L24:N24">L4:N4+_xlfn.T.INV.2T(0.05,M7)*L5:N5</f>
         <v>71.369567975119111</v>
       </c>
       <c r="M24" s="37">
@@ -7485,9 +7459,6 @@
       </c>
       <c r="N24" s="37">
         <v>-41.328444128369725</v>
-      </c>
-      <c r="O24" s="27">
-        <v>177.5132263657527</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.7">
@@ -11217,7 +11188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6CC015B-A697-429A-8F6D-46EC0D99698E}">
   <dimension ref="A1:W173"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
@@ -11719,6 +11690,15 @@
       <c r="L12" s="19" t="s">
         <v>108</v>
       </c>
+      <c r="M12" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="R12" s="30" t="s">
         <v>167</v>
       </c>
@@ -11758,7 +11738,7 @@
         <v>99</v>
       </c>
       <c r="M13" s="23" cm="1">
-        <f t="array" ref="M13:P13">M4:P4/M5:P5</f>
+        <f t="array" ref="M13:O13">M4:O4/M5:O5</f>
         <v>4.91901706195054</v>
       </c>
       <c r="N13" s="23">
@@ -11766,9 +11746,6 @@
       </c>
       <c r="O13" s="23">
         <v>-5.6961090239528005</v>
-      </c>
-      <c r="P13" s="23">
-        <v>5.7342321209048954</v>
       </c>
       <c r="R13" t="s">
         <v>163</v>
@@ -11809,7 +11786,7 @@
         <v>98</v>
       </c>
       <c r="M14" s="1" cm="1">
-        <f t="array" ref="M14:P14">_xlfn.T.DIST.2T(ABS(_xlfn.ANCHORARRAY(M13)),N7)</f>
+        <f t="array" ref="M14:O14">_xlfn.T.DIST.2T(ABS(_xlfn.ANCHORARRAY(M13)),N7)</f>
         <v>1.1529481709059744E-5</v>
       </c>
       <c r="N14" s="1">
@@ -11817,9 +11794,6 @@
       </c>
       <c r="O14" s="1">
         <v>8.2456447773657446E-7</v>
-      </c>
-      <c r="P14" s="1">
-        <v>7.2334791459038205E-7</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.7">

--- a/10.xlsx
+++ b/10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiros-h\Documents\サンプル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E109852-107D-41BD-83BF-6D1FE590FBBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C5C0BB-1976-4EDD-A579-978A4E3E40C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5977" yWindow="1508" windowWidth="28186" windowHeight="15045" xr2:uid="{43A727E7-E0DD-4276-BE22-A0C497C034AF}"/>
   </bookViews>
@@ -804,13 +804,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>③ セルR5に「=STDEV(係数の検定!D4:D53)」と入力する</t>
-    <rPh sb="30" eb="32">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>① セルR4に「=AVERAGE(係数の検定!D4:D53)」と入力する</t>
     <rPh sb="32" eb="34">
       <t>ニュウリョク</t>
@@ -1222,6 +1215,13 @@
     </rPh>
     <rPh sb="13" eb="15">
       <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③ セルR5に「=STDEV.P(係数の検定!D4:D53)」と入力する</t>
+    <rPh sb="32" eb="34">
+      <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -6835,7 +6835,7 @@
         <v>#N/A</v>
       </c>
       <c r="Q8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.7">
@@ -6869,7 +6869,7 @@
       <c r="K9" s="9"/>
       <c r="L9" s="8"/>
       <c r="Q9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.7">
@@ -6908,7 +6908,7 @@
         <v>5.4909154229465945E-10</v>
       </c>
       <c r="Q10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.7">
@@ -6981,7 +6981,7 @@
         <v>101</v>
       </c>
       <c r="Q12" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.7">
@@ -7026,7 +7026,7 @@
         <v>-5.6961090239527978</v>
       </c>
       <c r="Q13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.7">
@@ -7100,7 +7100,7 @@
         <v>300</v>
       </c>
       <c r="Q15" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.7">
@@ -7145,7 +7145,7 @@
         <v>2.7485482591219454E-7</v>
       </c>
       <c r="Q16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.7">
@@ -7178,7 +7178,7 @@
       </c>
       <c r="K17" s="12"/>
       <c r="Q17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.7">
@@ -11216,10 +11216,10 @@
       </c>
       <c r="B1" s="11"/>
       <c r="R1" s="30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="T1" s="30" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.7">
@@ -11265,11 +11265,11 @@
         <v>104</v>
       </c>
       <c r="R3" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="T3" s="25"/>
       <c r="U3" s="26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.7">
@@ -11320,7 +11320,7 @@
         <v>14252.303709666407</v>
       </c>
       <c r="R4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T4" s="43" t="s">
         <v>101</v>
@@ -11377,7 +11377,7 @@
         <v>2485.477289576012</v>
       </c>
       <c r="R5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T5" s="43" t="s">
         <v>103</v>
@@ -11539,7 +11539,7 @@
         <v>#N/A</v>
       </c>
       <c r="R8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.7">
@@ -11576,7 +11576,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="8"/>
       <c r="R9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.7">
@@ -11618,7 +11618,7 @@
         <v>5.4909154229465563E-10</v>
       </c>
       <c r="R10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.7">
@@ -11653,7 +11653,7 @@
         <v>450</v>
       </c>
       <c r="R11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.7">
@@ -11700,7 +11700,7 @@
         <v>101</v>
       </c>
       <c r="R12" s="30" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.7">
@@ -11748,7 +11748,7 @@
         <v>-5.6961090239528005</v>
       </c>
       <c r="R13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.7">
@@ -11825,7 +11825,7 @@
         <v>300</v>
       </c>
       <c r="R15" s="30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="T15" s="47" t="s">
         <v>113</v>
@@ -11835,7 +11835,7 @@
         <v>5253.6578969632392</v>
       </c>
       <c r="V15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.7">
@@ -11871,7 +11871,7 @@
       </c>
       <c r="L16" s="12"/>
       <c r="R16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.7">
@@ -12005,7 +12005,7 @@
         <v>120</v>
       </c>
       <c r="R20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.7">
@@ -12040,7 +12040,7 @@
         <v>28</v>
       </c>
       <c r="R21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.7">
@@ -12075,7 +12075,7 @@
         <v>150</v>
       </c>
       <c r="R22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.7">
@@ -12142,7 +12142,7 @@
         <v>170</v>
       </c>
       <c r="R24" s="30" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T24" s="26" t="s">
         <v>101</v>
@@ -12322,7 +12322,7 @@
         <v>75</v>
       </c>
       <c r="R28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="T28" s="28" t="e">
         <v>#NUM!</v>
@@ -12369,7 +12369,7 @@
         <v>270</v>
       </c>
       <c r="R29" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.7">

--- a/10.xlsx
+++ b/10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiros-h\Documents\サンプル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C5C0BB-1976-4EDD-A579-978A4E3E40C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6CD492C-8A29-488C-90E2-B903895C252C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5977" yWindow="1508" windowWidth="28186" windowHeight="15045" xr2:uid="{43A727E7-E0DD-4276-BE22-A0C497C034AF}"/>
   </bookViews>
@@ -1482,9 +1482,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1504,6 +1501,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4983,7 +4983,7 @@
       <c r="I23" s="2">
         <v>76</v>
       </c>
-      <c r="K23" s="45" t="s">
+      <c r="K23" s="44" t="s">
         <v>136</v>
       </c>
       <c r="L23" s="5" cm="1">
@@ -5025,7 +5025,7 @@
       <c r="I24" s="2">
         <v>170</v>
       </c>
-      <c r="K24" s="46" t="s">
+      <c r="K24" s="45" t="s">
         <v>137</v>
       </c>
       <c r="L24" s="37" cm="1">
@@ -7405,7 +7405,7 @@
       <c r="I23" s="2">
         <v>76</v>
       </c>
-      <c r="K23" s="45" t="s">
+      <c r="K23" s="44" t="s">
         <v>136</v>
       </c>
       <c r="L23" s="5" cm="1">
@@ -7447,7 +7447,7 @@
       <c r="I24" s="2">
         <v>170</v>
       </c>
-      <c r="K24" s="46" t="s">
+      <c r="K24" s="45" t="s">
         <v>137</v>
       </c>
       <c r="L24" s="37" cm="1">
@@ -11322,7 +11322,7 @@
       <c r="R4" t="s">
         <v>149</v>
       </c>
-      <c r="T4" s="43" t="s">
+      <c r="T4" s="42" t="s">
         <v>101</v>
       </c>
       <c r="U4" s="5" cm="1">
@@ -11379,7 +11379,7 @@
       <c r="R5" t="s">
         <v>150</v>
       </c>
-      <c r="T5" s="43" t="s">
+      <c r="T5" s="42" t="s">
         <v>103</v>
       </c>
       <c r="U5" s="5">
@@ -11432,7 +11432,7 @@
       <c r="P6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="T6" s="43" t="s">
+      <c r="T6" s="42" t="s">
         <v>102</v>
       </c>
       <c r="U6" s="5">
@@ -11485,7 +11485,7 @@
       <c r="P7" t="e">
         <v>#N/A</v>
       </c>
-      <c r="T7" s="44" t="s">
+      <c r="T7" s="43" t="s">
         <v>104</v>
       </c>
       <c r="U7" s="27">
@@ -11827,10 +11827,10 @@
       <c r="R15" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="T15" s="47" t="s">
+      <c r="T15" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="U15" s="48" cm="1">
+      <c r="U15" s="47" cm="1">
         <f t="array" ref="U15">SUMSQ(J4:J53-MMULT(D4:G53,_xlfn.ANCHORARRAY(U4)))/(50-3-1)</f>
         <v>5253.6578969632392</v>
       </c>
@@ -12188,14 +12188,14 @@
       <c r="J25" s="2">
         <v>300</v>
       </c>
-      <c r="T25" s="41" cm="1">
+      <c r="T25" s="48" cm="1">
         <f t="array" ref="T25:W28">SQRT(MINVERSE(MMULT(TRANSPOSE(D4:G53),D4:G53))*U15)</f>
         <v>1.2289639684906835</v>
       </c>
-      <c r="U25" s="28">
+      <c r="U25" s="5">
         <v>1.3044763670424878E-2</v>
       </c>
-      <c r="V25" s="28">
+      <c r="V25" s="5">
         <v>3.6013044831097962E-2</v>
       </c>
       <c r="W25" s="28" t="e">
@@ -12233,13 +12233,13 @@
       <c r="J26" s="2">
         <v>25</v>
       </c>
-      <c r="T26" s="28">
+      <c r="T26" s="5">
         <v>1.3044763670424377E-2</v>
       </c>
-      <c r="U26" s="41">
+      <c r="U26" s="48">
         <v>3.4299363632910111E-4</v>
       </c>
-      <c r="V26" s="28">
+      <c r="V26" s="5">
         <v>5.8523473480470072E-4</v>
       </c>
       <c r="W26" s="28" t="e">
@@ -12277,13 +12277,13 @@
       <c r="J27" s="2">
         <v>100</v>
       </c>
-      <c r="T27" s="28">
+      <c r="T27" s="5">
         <v>3.6013044831105262E-2</v>
       </c>
-      <c r="U27" s="28">
+      <c r="U27" s="5">
         <v>5.8523473480476327E-4</v>
       </c>
-      <c r="V27" s="41">
+      <c r="V27" s="48">
         <v>1.3096781062781081E-2</v>
       </c>
       <c r="W27" s="28" t="e">
@@ -12333,7 +12333,7 @@
       <c r="V28" s="28" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="W28" s="42">
+      <c r="W28" s="41">
         <v>2485.477289577359</v>
       </c>
     </row>
